--- a/Dataset/Folds/Fold_1/Excel/56.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6130" uniqueCount="805">
   <si>
     <t>Doi</t>
   </si>
@@ -2453,6 +2453,261 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                          Bonardelli%S.%coreGivesNoEmail%1,                          Calza%S.%coreGivesNoEmail%1,                          Casiraghi%A.%coreGivesNoEmail%1,                          Castelli%F.%coreGivesNoEmail%1,                          Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                          Domenicucci%M.%coreGivesNoEmail%1,                          Fontanella%M. M.%coreGivesNoEmail%1,                          Gheza%F.%coreGivesNoEmail%1,                          Lussardi%G. L.%coreGivesNoEmail%1,                          Maroldi%R.%coreGivesNoEmail%1,                          Milano%G.%coreGivesNoEmail%1,                          Panciani%P. P.%coreGivesNoEmail%1,                          Portolani%N.%coreGivesNoEmail%1,                          Rasulo%F. A.%coreGivesNoEmail%1,                          Saraceno%G.%coreGivesNoEmail%1,                          Signorini%L.%coreGivesNoEmail%1,                          Vecchiarelli%L.%coreGivesNoEmail%1,                          Vezzoli%M.%coreGivesNoEmail%1,                          Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                            Tania%Paredes%NULL%2,                            Tania%Paredes%NULL%0,                            David%Caceres%NULL%1,                            Camille M.%Webb%NULL%1,                            Luis M.%Valdez%NULL%1,                            Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                            Andrea%Coscione%NULL%1,                            Riccardo%D’Ambrosi%NULL%1,                            Luca%Usai%NULL%1,                            Claudio%Roscitano%NULL%1,                            Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                            Yuan%Zhang%NULL%1,                            Lei%Huang%NULL%0,                            Bi-heng%Cheng%NULL%1,                            Zhong-yuan%Xia%NULL%1,                            Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                            Long%Wang%NULL%1,                            Gang%Wu%NULL%1,                            Xiaoming%Lei%NULL%1,                            Wei%Li%NULL%0,                            Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                            L%Frigerio%NULL%1,                            V%Savasi%NULL%1,                            P%Vergani%NULL%1,                            F%Prefumo%NULL%1,                            S%Barresi%NULL%2,                            S%Barresi%NULL%0,                            S%Bianchi%NULL%1,                            E%Ciriello%NULL%1,                            F%Facchinetti%NULL%1,                            MT%Gervasi%NULL%1,                            E%Iurlaro%NULL%1,                            A%Kustermann%NULL%1,                            G%Mangili%NULL%1,                            F%Mosca%NULL%1,                            L%Patanè%NULL%1,                            D%Spazzini%NULL%1,                            A%Spinillo%NULL%1,                            G%Trojano%NULL%1,                            M%Vignali%NULL%1,                            A%Villa%NULL%1,                            GV%Zuccotti%NULL%1,                            F%Parazzini%Fabio.parazzini@unimi.it%1,                            I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                            Matthew%Libby%mnlibby@gmail.com%1,                            Michael%Ochs%Michael.Ochs@usap.com%1,                            Jennifer%Hanna%hannaj21@hotmail.com%1,                            Julie E.%Mangino%Jemangino1@gmail.com%1,                            Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                            Hongqing%Xi%NULL%1,                            Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                            Shuai%Zhao%NULL%2,                            Linlin%Han%NULL%1,                            Qi%Wang%NULL%1,                            Haifa%Xia%NULL%1,                            Xin%Huang%NULL%1,                            Shanglong%Yao%NULL%2,                            Jiapeng%Huang%NULL%2,                            Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                            Jihyang%Lee%NULL%2,                            Jihyang%Lee%NULL%0,                            Eunju%Kim%NULL%2,                            Eunju%Kim%NULL%0,                            Kyeongyoon%Woo%NULL%2,                            Kyeongyoon%Woo%NULL%0,                            Hak Youle%Park%NULL%2,                            Hak Youle%Park%NULL%0,                            Jihyun%An%NULL%2,                            Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                            Ruihong%Zhao%NULL%2,                            Shufa%Zheng%NULL%1,                            Xu%Chen%NULL%0,                            Jinxi%Wang%NULL%1,                            Xiaoli%Sheng%NULL%1,                            Jianying%Zhou%NULL%1,                            Hongliu%Cai%NULL%1,                            Qiang%Fang%NULL%0,                            Fei%Yu%NULL%1,                            Jian%Fan%NULL%1,                            Kaijin%Xu%NULL%1,                            Yu%Chen%NULL%2,                            Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                            Lin%Sang%NULL%1,                            Shihua%Du%NULL%1,                            Tao%Li%NULL%0,                            Yange%Chang%NULL%1,                            Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                            Abdulrahman%Odeh%NULL%1,                            Simon%Ereidge%NULL%1,                            Hosni Khairy%Salem%NULL%1,                            Gareth P%Jones%NULL%1,                            Anne%Gardner%NULL%1,                            Shiva S%Tripathi%NULL%1,                            Anne%Gregg%NULL%1,                            Reuben%Jeganathan%NULL%1,                            Muhammad Harris%Siddique%NULL%1,                            Celestino P%Lombardi%NULL%1,                            Benjamin%Martin%NULL%1,                            Cosimo Alex%Leo%NULL%1,                            Debashis%Dass%NULL%1,                            Gregorio%Di Franco%NULL%1,                            Long R%Jiao%NULL%1,                            Giulio Maria%Mari%NULL%1,                            Luis-Cristobal%Capitan-Morales%NULL%1,                            Tara M%Connelly%NULL%1,                            Ammar%Alanbuki%NULL%1,                            Armando%De Virgilio%NULL%1,                            Clare%Schilling%NULL%1,                            Carlos%San Miguel Mendez%NULL%1,                            Gauri%Kulkarni%NULL%1,                            Kulsoom%Nizami%NULL%1,                            Stewart%Walsh%NULL%1,                            Harry%Dean%NULL%1,                            Miguel%Ruiz-Marin%NULL%1,                            Rory%Houston%NULL%1,                            Mario%Trompetto%NULL%1,                            David%Chrastek%NULL%1,                            Vasileios%Kouritas%NULL%1,                            Maria%Cannoletta%NULL%1,                            Francesco%Rosato%NULL%1,                            Manish V%Kaushal%NULL%1,                            Paulo Matos%Costa%NULL%1,                            Hannah H%Elkadi%NULL%1,                            Jack R%Johnstone%NULL%1,                            Esmee%Irvine%NULL%1,                            Maria R%Alvarez%NULL%1,                            Carlo%Corbellini%NULL%1,                            Gowtham S%Venkatesan%NULL%1,                            Olga%Mateo-Sierra%NULL%1,                            Carolina%Martínez-Pérez%NULL%1,                            Javier%Serrano González%NULL%1,                            Miguel Õngel%Hernández Bartolomé%NULL%1,                            David%Díaz Pérez%NULL%1,                            María%Gutiérrez Samaniego%NULL%1,                            Pablo%Galindo Jara%NULL%1,                            Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                            Guoting%Xu%NULL%1,                            Yong%Yang%NULL%1,                            Yuan%Tao%NULL%1,                            May%Pian-Smith%NULL%1,                            Vandana%Madhavan%NULL%1,                            Zhongcong%Xie%zxie@mgh.harvard.edu%1,                            Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                            Zhiqiang%Zhou%NULL%2,                            Jianping%Zhang%NULL%2,                            Fengfeng%Zhu%NULL%2,                            Yongyan%Tang%NULL%2,                            Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                            Shuai%Zhao%NULL%0,                            Zhouyang%Wu%NULL%1,                            Huilin%Luo%NULL%1,                            Cheng%Zhou%NULL%1,                            Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                            Xue-Jie%Yu%NULL%1,                            Tao%Fu%NULL%1,                            Yu%Liu%NULL%2,                            Yu%Liu%NULL%0,                            Yan%Jiang%NULL%1,                            Bing Xiang%Yang%NULL%1,                            Yongyi%Bi%NULL%2,                            Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                            Ken%Ling%NULL%1,                            Hong%Yan%NULL%1,                            Liang%Zhong%NULL%1,                            Xiaohong%Peng%NULL%1,                            Shanglong%Yao%NULL%0,                            Jiapeng%Huang%NULL%0,                            Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                            Yin Y.%Liu%NULL%1,                            Qiong%Luo%NULL%1,                            Yu F.%Zou%NULL%1,                            Hai X.%Jiang%NULL%1,                            Hui%Li%NULL%0,                            Jing J.%Zhang%NULL%1,                            Zhen%Li%NULL%0,                            Xin%Yang%NULL%1,                            Min%Ma%NULL%1,                            Li J.%Tang%NULL%1,                            Ying Y.%Chen%chenyingy@whu.edu.cn%1,                            Feng%Zheng%fengzheng@whu.edu.cn%1,                            Jian J.%Ke%1219628972@qq.com%1,                            Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                             Tania%Paredes%NULL%2,                             Tania%Paredes%NULL%0,                             David%Caceres%NULL%1,                             Camille M.%Webb%NULL%1,                             Luis M.%Valdez%NULL%1,                             Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                             Andrea%Coscione%NULL%1,                             Riccardo%D’Ambrosi%NULL%1,                             Luca%Usai%NULL%1,                             Claudio%Roscitano%NULL%1,                             Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                             Yuan%Zhang%NULL%1,                             Lei%Huang%NULL%0,                             Bi-heng%Cheng%NULL%1,                             Zhong-yuan%Xia%NULL%1,                             Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                             Long%Wang%NULL%1,                             Gang%Wu%NULL%1,                             Xiaoming%Lei%NULL%1,                             Wei%Li%NULL%0,                             Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                             L%Frigerio%NULL%1,                             V%Savasi%NULL%1,                             P%Vergani%NULL%1,                             F%Prefumo%NULL%1,                             S%Barresi%NULL%2,                             S%Barresi%NULL%0,                             S%Bianchi%NULL%1,                             E%Ciriello%NULL%1,                             F%Facchinetti%NULL%1,                             MT%Gervasi%NULL%1,                             E%Iurlaro%NULL%1,                             A%Kustermann%NULL%1,                             G%Mangili%NULL%1,                             F%Mosca%NULL%1,                             L%Patanè%NULL%1,                             D%Spazzini%NULL%1,                             A%Spinillo%NULL%1,                             G%Trojano%NULL%1,                             M%Vignali%NULL%1,                             A%Villa%NULL%1,                             GV%Zuccotti%NULL%1,                             F%Parazzini%Fabio.parazzini@unimi.it%1,                             I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                             Matthew%Libby%mnlibby@gmail.com%1,                             Michael%Ochs%Michael.Ochs@usap.com%1,                             Jennifer%Hanna%hannaj21@hotmail.com%1,                             Julie E.%Mangino%Jemangino1@gmail.com%1,                             Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                             Hongqing%Xi%NULL%1,                             Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                             Shuai%Zhao%NULL%2,                             Linlin%Han%NULL%1,                             Qi%Wang%NULL%1,                             Haifa%Xia%NULL%1,                             Xin%Huang%NULL%1,                             Shanglong%Yao%NULL%2,                             Jiapeng%Huang%NULL%2,                             Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                             Jihyang%Lee%NULL%2,                             Jihyang%Lee%NULL%0,                             Eunju%Kim%NULL%2,                             Eunju%Kim%NULL%0,                             Kyeongyoon%Woo%NULL%2,                             Kyeongyoon%Woo%NULL%0,                             Hak Youle%Park%NULL%2,                             Hak Youle%Park%NULL%0,                             Jihyun%An%NULL%2,                             Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                             Ruihong%Zhao%NULL%2,                             Shufa%Zheng%NULL%1,                             Xu%Chen%NULL%0,                             Jinxi%Wang%NULL%1,                             Xiaoli%Sheng%NULL%1,                             Jianying%Zhou%NULL%1,                             Hongliu%Cai%NULL%1,                             Qiang%Fang%NULL%0,                             Fei%Yu%NULL%1,                             Jian%Fan%NULL%1,                             Kaijin%Xu%NULL%1,                             Yu%Chen%NULL%2,                             Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                             Lin%Sang%NULL%1,                             Shihua%Du%NULL%1,                             Tao%Li%NULL%0,                             Yange%Chang%NULL%1,                             Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                             Abdulrahman%Odeh%NULL%1,                             Simon%Ereidge%NULL%1,                             Hosni Khairy%Salem%NULL%1,                             Gareth P%Jones%NULL%1,                             Anne%Gardner%NULL%1,                             Shiva S%Tripathi%NULL%1,                             Anne%Gregg%NULL%1,                             Reuben%Jeganathan%NULL%1,                             Muhammad Harris%Siddique%NULL%1,                             Celestino P%Lombardi%NULL%1,                             Benjamin%Martin%NULL%1,                             Cosimo Alex%Leo%NULL%1,                             Debashis%Dass%NULL%1,                             Gregorio%Di Franco%NULL%1,                             Long R%Jiao%NULL%1,                             Giulio Maria%Mari%NULL%1,                             Luis-Cristobal%Capitan-Morales%NULL%1,                             Tara M%Connelly%NULL%1,                             Ammar%Alanbuki%NULL%1,                             Armando%De Virgilio%NULL%1,                             Clare%Schilling%NULL%1,                             Carlos%San Miguel Mendez%NULL%1,                             Gauri%Kulkarni%NULL%1,                             Kulsoom%Nizami%NULL%1,                             Stewart%Walsh%NULL%1,                             Harry%Dean%NULL%1,                             Miguel%Ruiz-Marin%NULL%1,                             Rory%Houston%NULL%1,                             Mario%Trompetto%NULL%1,                             David%Chrastek%NULL%1,                             Vasileios%Kouritas%NULL%1,                             Maria%Cannoletta%NULL%1,                             Francesco%Rosato%NULL%1,                             Manish V%Kaushal%NULL%1,                             Paulo Matos%Costa%NULL%1,                             Hannah H%Elkadi%NULL%1,                             Jack R%Johnstone%NULL%1,                             Esmee%Irvine%NULL%1,                             Maria R%Alvarez%NULL%1,                             Carlo%Corbellini%NULL%1,                             Gowtham S%Venkatesan%NULL%1,                             Olga%Mateo-Sierra%NULL%1,                             Carolina%Martínez-Pérez%NULL%1,                             Javier%Serrano González%NULL%1,                             Miguel Õngel%Hernández Bartolomé%NULL%1,                             David%Díaz Pérez%NULL%1,                             María%Gutiérrez Samaniego%NULL%1,                             Pablo%Galindo Jara%NULL%1,                             Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                             Guoting%Xu%NULL%1,                             Yong%Yang%NULL%1,                             Yuan%Tao%NULL%1,                             May%Pian-Smith%NULL%1,                             Vandana%Madhavan%NULL%1,                             Zhongcong%Xie%zxie@mgh.harvard.edu%1,                             Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                             Zhiqiang%Zhou%NULL%2,                             Jianping%Zhang%NULL%2,                             Fengfeng%Zhu%NULL%2,                             Yongyan%Tang%NULL%2,                             Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                             Shuai%Zhao%NULL%0,                             Zhouyang%Wu%NULL%1,                             Huilin%Luo%NULL%1,                             Cheng%Zhou%NULL%1,                             Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                             Xue-Jie%Yu%NULL%1,                             Tao%Fu%NULL%1,                             Yu%Liu%NULL%2,                             Yu%Liu%NULL%0,                             Yan%Jiang%NULL%1,                             Bing Xiang%Yang%NULL%1,                             Yongyi%Bi%NULL%2,                             Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                             Ken%Ling%NULL%1,                             Hong%Yan%NULL%1,                             Liang%Zhong%NULL%1,                             Xiaohong%Peng%NULL%1,                             Shanglong%Yao%NULL%0,                             Jiapeng%Huang%NULL%0,                             Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                             Yin Y.%Liu%NULL%1,                             Qiong%Luo%NULL%1,                             Yu F.%Zou%NULL%1,                             Hai X.%Jiang%NULL%1,                             Hui%Li%NULL%0,                             Jing J.%Zhang%NULL%1,                             Zhen%Li%NULL%0,                             Xin%Yang%NULL%1,                             Min%Ma%NULL%1,                             Li J.%Tang%NULL%1,                             Ying Y.%Chen%chenyingy@whu.edu.cn%1,                             Feng%Zheng%fengzheng@whu.edu.cn%1,                             Jian J.%Ke%1219628972@qq.com%1,                             Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are few cases of pregnant women with novel corona virus 2019 (COVID-19) in the literature, most of them with a mild illness course.
+ There is limited evidence about in utero infection and early positive neonatal testing.
+ A 41-year-old G3P2 with a history of previous cesarean deliveries and diabetes mellitus presented with a 4-day history of malaise, low-grade fever, and progressive shortness of breath.
+ A nasopharyngeal swab was positive for COVID-19, COVID-19 serology was negative.
+ The patient developed respiratory failure requiring mechanical ventilation on day 5 of disease onset.
+ The patient underwent a cesarean delivery, and neonatal isolation was implemented immediately after birth, without delayed cord clamping or skin-to-skin contact.
+ The neonatal nasopharyngeal swab, 16 hours after delivery, was positive for severe acute respiratory syndrome–coronavirus 2 (SARS-CoV-2) real-time polymerase chain reaction (RT-PCR), and immunoglobulin (Ig)-M and IgG for SARS-CoV-2 were negative.
+ Maternal IgM and IgG were positive on postpartum day 4 (day 9 after symptom onset).
+ We report a severe presentation of COVID-19 during pregnancy.
+ To our knowledge, this is the earliest reported positive PCR in the neonate, raising the concern for vertical transmission.
+ We suggest pregnant women should be considered as a high-risk group and minimize exposures for these reasons.
+</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0, Tania%Paredes%NULL%0, Tania%Paredes%NULL%0, David%Caceres%NULL%0, Camille M.%Webb%NULL%0, Luis M.%Valdez%NULL%0, Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>Thieme Medical Publishers</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%0, Andrea%Coscione%NULL%1, Riccardo%D’Ambrosi%NULL%1, Luca%Usai%NULL%1, Claudio%Roscitano%NULL%1, Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>Journal of Bone and Joint Surgery, Inc.</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0, Yuan%Zhang%NULL%0, Lei%Huang%NULL%0, Bi-heng%Cheng%NULL%0, Zhong-yuan%Xia%NULL%0, Qing-tao%Meng%mengqingtao2018@126.com%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;An outbreak of novel coronavirus pneumonia occurred worldwide since December 2019, which had been named COVID-19 subsequently.
+ It is extremely transmissive that infection in pregnant women were unavoidable.
+ The delivery process will produce large amount of contaminated media, leaving a challenge for medical personnel to ensure both the safety of the mother and infant and good self-protection.
+ Only rare cases of pregnant women with COVID-19 are available for reference.
+ Here, we report a 30-year-old woman had reverse transcription polymerase chain reaction-confirmed COVID-19 at 36 weeks 2 days of gestation.
+ Significant low and high variability of fetal heart rate baseline and severe variable decelerations were repeated after admission.
+ An emergency cesarean section at 37 weeks 1 day of gestation under combined spinal and epidural anesthesia was performed with strict protection for all personnel.
+ Anesthesia and operation went uneventfully.
+ None of the participants were infected.
+ We can conclude that when confronted with cesarean section in parturient with COVID-19, careful planning and detailed preparation can improve the safety of the mother and infant and reduce the risk of infection for medical staff to help preventing and controlling the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%0, Long%Wang%NULL%1, Gang%Wu%NULL%0, Xiaoming%Lei%NULL%1, Wei%Li%NULL%0, Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%0, L%Frigerio%NULL%1, V%Savasi%NULL%1, P%Vergani%NULL%1, F%Prefumo%NULL%1, S%Barresi%NULL%2, S%Barresi%NULL%0, S%Bianchi%NULL%1, E%Ciriello%NULL%1, F%Facchinetti%NULL%1, MT%Gervasi%NULL%1, E%Iurlaro%NULL%1, A%Kustermann%NULL%1, G%Mangili%NULL%1, F%Mosca%NULL%1, L%Patanè%NULL%1, D%Spazzini%NULL%1, A%Spinillo%NULL%1, G%Trojano%NULL%1, M%Vignali%NULL%1, A%Villa%NULL%1, GV%Zuccotti%NULL%1, F%Parazzini%Fabio.parazzini@unimi.it%1, I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%0, Matthew%Libby%mnlibby@gmail.com%1, Michael%Ochs%Michael.Ochs@usap.com%1, Jennifer%Hanna%hannaj21@hotmail.com%1, Julie E.%Mangino%Jemangino1@gmail.com%1, Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%0, Hongqing%Xi%NULL%1, Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott, Williams, and Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe acute respiratory syndrome coronavirus-2 is still active in Wuhan, China, and is spreading to the rest of the world.
+ Recently, perioperative anesthetic management in patients with suspected or confirmed coronavirus-2 has been reported.
+ However, little has been reported on the anesthetic management of patients undergoing aortic dissection repair in patients with suspected severe acute respiratory syndrome coronavirus-2 infection.
+ During the outbreak in Wuhan, the authors’ team completed 4 cases of aortic dissection repair successfully in patients with suspected severe acute respiratory syndrome coronavirus-2 infection.
+ The purpose of the present report is to summarize current knowledge and experiences on anesthetic management in this patient population and to provide clinical practice guidelines on anesthetic management and infection prevention and control in these critically ill patients.
+</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%0, Shuai%Zhao%NULL%0, Linlin%Han%NULL%1, Qi%Wang%NULL%0, Haifa%Xia%NULL%0, Xin%Huang%NULL%0, Shanglong%Yao%NULL%2, Jiapeng%Huang%NULL%2, Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0, Jihyang%Lee%NULL%0, Jihyang%Lee%NULL%0, Eunju%Kim%NULL%0, Eunju%Kim%NULL%0, Kyeongyoon%Woo%NULL%0, Kyeongyoon%Woo%NULL%0, Hak Youle%Park%NULL%0, Hak Youle%Park%NULL%0, Jihyun%An%NULL%0, Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>Korean Society of Anesthesiologists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A woman with coronavirus disease in her 35th week of pregnancy delivered an infant by cesarean section in a negative-pressure operating room.
+ The infant was negative for severe acute respiratory coronavirus 2. This case suggests that mother-to-child transmission is unlikely for this virus.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0, Ruihong%Zhao%NULL%2, Shufa%Zheng%NULL%1, Xu%Chen%NULL%0, Jinxi%Wang%NULL%1, Xiaoli%Sheng%NULL%1, Jianying%Zhou%NULL%1, Hongliu%Cai%NULL%1, Qiang%Fang%NULL%0, Fei%Yu%NULL%1, Jian%Fan%NULL%1, Kaijin%Xu%NULL%0, Yu%Chen%NULL%0, Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study is to investigate the clinical characteristics of late pregnancy with asymptomatic 2019 novel coronavirus disease (COVID‐19) infection, evaluate the outcome of maternal and fetal prognosis, and identify the evidence of intrauterine vertical transmission.
+ A 22‐years‐old pregnant woman with asymptomatic COVID‐19 infection who was admitted to our hospital on 11 February 2020 was enrolled in this study.
+ Clinical data including laboratory test results and chest computed tomography (CT) scanning were collected and reviewed.
+ Diagnosis of late pregnancy with asymptomatic COVID‐19 infection was made.
+ Lumbar anesthesia for cesarean section was performed and a female baby was delivered uneventfully, with the Apgar score of 9 to 10 points.
+ Three times of COVID‐19 nucleic acid test for the baby was negative after delivery.
+ The puerpera returned to normal after the operation and two times of throat swab COVID‐19 nucleic acid test were all negative after antiviral therapy.
+ We reported an asymptomatic COVID‐19 pregnant woman with detailed clinical information and our result indicated that for late pregnant women with asymptomatic COVID‐19 infection, there might be no intrauterine infection caused by vertical transmission.
+</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0, Lin%Sang%NULL%0, Shihua%Du%NULL%0, Tao%Li%NULL%0, Yange%Chang%NULL%0, Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%0, Abdulrahman%Odeh%NULL%1, Simon%Ereidge%NULL%1, Hosni Khairy%Salem%NULL%1, Gareth P%Jones%NULL%1, Anne%Gardner%NULL%1, Shiva S%Tripathi%NULL%1, Anne%Gregg%NULL%1, Reuben%Jeganathan%NULL%1, Muhammad Harris%Siddique%NULL%1, Celestino P%Lombardi%NULL%1, Benjamin%Martin%NULL%1, Cosimo Alex%Leo%NULL%1, Debashis%Dass%NULL%1, Gregorio%Di Franco%NULL%1, Long R%Jiao%NULL%1, Giulio Maria%Mari%NULL%1, Luis-Cristobal%Capitan-Morales%NULL%1, Tara M%Connelly%NULL%1, Ammar%Alanbuki%NULL%1, Armando%De Virgilio%NULL%1, Clare%Schilling%NULL%1, Carlos%San Miguel Mendez%NULL%1, Gauri%Kulkarni%NULL%1, Kulsoom%Nizami%NULL%1, Stewart%Walsh%NULL%1, Harry%Dean%NULL%1, Miguel%Ruiz-Marin%NULL%1, Rory%Houston%NULL%1, Mario%Trompetto%NULL%1, David%Chrastek%NULL%1, Vasileios%Kouritas%NULL%1, Maria%Cannoletta%NULL%1, Francesco%Rosato%NULL%1, Manish V%Kaushal%NULL%1, Paulo Matos%Costa%NULL%1, Hannah H%Elkadi%NULL%1, Jack R%Johnstone%NULL%1, Esmee%Irvine%NULL%1, Maria R%Alvarez%NULL%1, Carlo%Corbellini%NULL%1, Gowtham S%Venkatesan%NULL%1, Olga%Mateo-Sierra%NULL%1, Carolina%Martínez-Pérez%NULL%1, Javier%Serrano González%NULL%1, Miguel Õngel%Hernández Bartolomé%NULL%1, David%Díaz Pérez%NULL%1, María%Gutiérrez Samaniego%NULL%1, Pablo%Galindo Jara%NULL%1, Neil%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%0, Guoting%Xu%NULL%1, Yong%Yang%NULL%1, Yuan%Tao%NULL%1, May%Pian-Smith%NULL%1, Vandana%Madhavan%NULL%1, Zhongcong%Xie%zxie@mgh.harvard.edu%1, Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>British Journal of Anaesthesia. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0, Zhiqiang%Zhou%NULL%0, Jianping%Zhang%NULL%0, Fengfeng%Zhu%NULL%0, Yongyan%Tang%NULL%0, Xinghua%Shen%luckydrx@163.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outbreak of coronavirus disease 2019 (COVID-19) is spreading rapidly [1–8].
+ On 31 January 2020, the World Health Organization declared COVID-19 a public health emergency of international concern.
+ By 13 March 2020, COVID-19 had been confirmed in 127 countries, with 145 166 cases and 5428 deaths worldwide.
+</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%0, Xue-Jie%Yu%NULL%1, Tao%Fu%NULL%1, Yu%Liu%NULL%0, Yu%Liu%NULL%0, Yan%Jiang%NULL%0, Bing Xiang%Yang%NULL%1, Yongyi%Bi%NULL%2, Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%0, Yin Y.%Liu%NULL%1, Qiong%Luo%NULL%1, Yu F.%Zou%NULL%1, Hai X.%Jiang%NULL%1, Hui%Li%NULL%0, Jing J.%Zhang%NULL%1, Zhen%Li%NULL%0, Xin%Yang%NULL%1, Min%Ma%NULL%1, Li J.%Tang%NULL%1, Ying Y.%Chen%chenyingy@whu.edu.cn%1, Feng%Zheng%fengzheng@whu.edu.cn%1, Jian J.%Ke%1219628972@qq.com%1, Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -2816,10 +3071,10 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>769</v>
       </c>
       <c r="E2" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -2831,10 +3086,10 @@
         <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3">
@@ -2851,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>712</v>
+        <v>772</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2863,10 +3118,10 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4">
@@ -2880,10 +3135,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>713</v>
+        <v>774</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2895,10 +3150,10 @@
         <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>526</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5">
@@ -2909,28 +3164,28 @@
         <v>43963.0</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>582</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
         <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>583</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2944,10 +3199,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>776</v>
       </c>
       <c r="E6" t="s">
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2959,10 +3214,10 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>526</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7">
@@ -2979,7 +3234,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>715</v>
+        <v>779</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2991,10 +3246,10 @@
         <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8">
@@ -3008,10 +3263,10 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>716</v>
+        <v>781</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -3023,10 +3278,10 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>526</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9">
@@ -3041,7 +3296,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>717</v>
+        <v>783</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -3053,10 +3308,10 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10">
@@ -3067,28 +3322,28 @@
         <v>44013.0</v>
       </c>
       <c r="C10" t="s">
-        <v>533</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>718</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>588</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -3102,10 +3357,10 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>785</v>
       </c>
       <c r="E11" t="s">
-        <v>719</v>
+        <v>786</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -3117,10 +3372,10 @@
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12">
@@ -3137,7 +3392,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>720</v>
+        <v>788</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -3149,10 +3404,10 @@
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13">
@@ -3166,10 +3421,10 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>790</v>
       </c>
       <c r="E13" t="s">
-        <v>721</v>
+        <v>791</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -3181,10 +3436,10 @@
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14">
@@ -3198,10 +3453,10 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>793</v>
       </c>
       <c r="E14" t="s">
-        <v>722</v>
+        <v>794</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -3213,10 +3468,10 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15">
@@ -3227,28 +3482,28 @@
         <v>43983.0</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>414</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
         <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>594</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -3259,28 +3514,28 @@
         <v>43949.0</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>595</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -3297,7 +3552,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>723</v>
+        <v>795</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -3309,10 +3564,10 @@
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18">
@@ -3323,28 +3578,28 @@
         <v>43887.0</v>
       </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>417</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
         <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>598</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -3361,7 +3616,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -3373,10 +3628,10 @@
         <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20">
@@ -3393,7 +3648,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>725</v>
+        <v>799</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -3405,10 +3660,10 @@
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21">
@@ -3425,7 +3680,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>726</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -3437,10 +3692,10 @@
         <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22">
@@ -3451,28 +3706,28 @@
         <v>43963.0</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>421</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
         <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>583</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -3486,10 +3741,10 @@
         <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>801</v>
       </c>
       <c r="E23" t="s">
-        <v>727</v>
+        <v>802</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -3501,10 +3756,10 @@
         <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24">
@@ -3521,7 +3776,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>728</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -3533,10 +3788,10 @@
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25">
@@ -3553,7 +3808,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>729</v>
+        <v>804</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -3565,10 +3820,10 @@
         <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>71</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26">
@@ -3579,22 +3834,22 @@
         <v>43922.0</v>
       </c>
       <c r="C26" t="s">
-        <v>705</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>730</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>731</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>708</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>709</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
         <v>71</v>
@@ -3611,25 +3866,25 @@
         <v>44044.0</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>732</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>528</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
         <v>71</v>
